--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7E6B7-FC6D-9448-A08B-1D3394878067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673FEB96-26ED-FD4C-A910-4B141CC52298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="17140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="665">
   <si>
     <t>subsector</t>
   </si>
@@ -1628,21 +1628,6 @@
     <t>ef_soil_ef3_pasture_n2o_wet_climate</t>
   </si>
   <si>
-    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_crop_grass</t>
-  </si>
-  <si>
-    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_forest_nutrient_poor</t>
-  </si>
-  <si>
-    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_forest_nutrient_rich</t>
-  </si>
-  <si>
-    <t>ef_soil_ef2_n_drained_managed_soils_n2o_tropical_crop_grass</t>
-  </si>
-  <si>
-    <t>ef_soil_ef2_n_drained_managed_soils_n2o_tropical_forest</t>
-  </si>
-  <si>
     <t>frac_lndu_grasslands_cl2_dry</t>
   </si>
   <si>
@@ -1973,9 +1958,6 @@
     <t>ratio_soil_organic_matter_c_to_n</t>
   </si>
   <si>
-    <t>frac_soil_mineral_soils</t>
-  </si>
-  <si>
     <t>frac_soil_soc_loss_in_cropland</t>
   </si>
   <si>
@@ -2019,6 +2001,36 @@
   </si>
   <si>
     <t>factor_lndu_soil_carbon_wetlands</t>
+  </si>
+  <si>
+    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_crop_grass_kg_n2on_ha</t>
+  </si>
+  <si>
+    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_forest_nutrient_poor_kg_n2on_ha</t>
+  </si>
+  <si>
+    <t>ef_soil_ef2_n_drained_managed_soils_n2o_temperate_forest_nutrient_rich_kg_n2on_ha</t>
+  </si>
+  <si>
+    <t>ef_soil_ef2_n_drained_managed_soils_n2o_tropical_crop_grass_kg_n2on_ha</t>
+  </si>
+  <si>
+    <t>ef_soil_ef2_n_drained_managed_soils_n2o_tropical_forest_kg_n2on_ha</t>
+  </si>
+  <si>
+    <t>frac_lndu_soil_mineral_croplands</t>
+  </si>
+  <si>
+    <t>frac_lndu_soil_mineral_forests_mangroves</t>
+  </si>
+  <si>
+    <t>frac_lndu_soil_mineral_forests_primary</t>
+  </si>
+  <si>
+    <t>frac_lndu_soil_mineral_forests_secondary</t>
+  </si>
+  <si>
+    <t>frac_lndu_soil_mineral_grasslands</t>
   </si>
 </sst>
 </file>
@@ -2435,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS611"/>
+  <dimension ref="A1:AS615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B591" sqref="B591"/>
+    <sheetView tabSelected="1" topLeftCell="A565" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K608" sqref="K608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2723,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2833,7 +2845,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2955,7 +2967,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3077,7 +3089,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3687,7 +3699,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3931,7 +3943,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4053,7 +4065,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4419,7 +4431,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4663,7 +4675,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5273,7 +5285,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -5517,7 +5529,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5639,7 +5651,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -6005,7 +6017,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -6249,7 +6261,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -6859,7 +6871,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H37">
         <v>0.8</v>
@@ -7103,7 +7115,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H39">
         <v>0.8</v>
@@ -7225,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -7591,7 +7603,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H43">
         <v>0.8</v>
@@ -7835,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H45">
         <v>0.8</v>
@@ -8933,7 +8945,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -9058,7 +9070,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -9183,7 +9195,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -9308,7 +9320,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -9433,7 +9445,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -9558,7 +9570,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -9680,7 +9692,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -9802,7 +9814,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -9924,7 +9936,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -10046,7 +10058,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -10168,7 +10180,7 @@
         <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -10290,7 +10302,7 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -11388,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -11510,7 +11522,7 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -11632,7 +11644,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -11754,7 +11766,7 @@
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -12364,7 +12376,7 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -12608,7 +12620,7 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -12730,7 +12742,7 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -13096,7 +13108,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -13340,7 +13352,7 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -13950,7 +13962,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -14194,7 +14206,7 @@
         <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -14316,7 +14328,7 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -14682,7 +14694,7 @@
         <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -14926,7 +14938,7 @@
         <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -15048,7 +15060,7 @@
         <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -15173,7 +15185,7 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -15298,7 +15310,7 @@
         <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -15423,7 +15435,7 @@
         <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -15548,7 +15560,7 @@
         <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -15673,7 +15685,7 @@
         <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -15798,7 +15810,7 @@
         <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -15923,7 +15935,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -16048,7 +16060,7 @@
         <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -16173,7 +16185,7 @@
         <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -16786,7 +16798,7 @@
         <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -16908,7 +16920,7 @@
         <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -17030,7 +17042,7 @@
         <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -17152,7 +17164,7 @@
         <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -17274,7 +17286,7 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -17396,7 +17408,7 @@
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -17518,7 +17530,7 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -17640,7 +17652,7 @@
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -18738,7 +18750,7 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -18860,7 +18872,7 @@
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -18982,7 +18994,7 @@
         <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -19104,7 +19116,7 @@
         <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -19714,7 +19726,7 @@
         <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -19836,7 +19848,7 @@
         <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -19958,7 +19970,7 @@
         <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -20080,7 +20092,7 @@
         <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -20202,7 +20214,7 @@
         <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -20327,7 +20339,7 @@
         <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -20452,7 +20464,7 @@
         <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -20577,7 +20589,7 @@
         <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -20702,7 +20714,7 @@
         <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -20827,7 +20839,7 @@
         <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -20952,7 +20964,7 @@
         <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -21077,7 +21089,7 @@
         <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -21202,7 +21214,7 @@
         <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -21327,7 +21339,7 @@
         <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -21452,7 +21464,7 @@
         <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -21577,7 +21589,7 @@
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -21702,7 +21714,7 @@
         <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -21827,7 +21839,7 @@
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -21952,7 +21964,7 @@
         <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -22077,7 +22089,7 @@
         <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -22202,7 +22214,7 @@
         <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -22327,7 +22339,7 @@
         <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -22452,7 +22464,7 @@
         <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -22577,7 +22589,7 @@
         <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -23190,7 +23202,7 @@
         <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H170">
         <v>0.8</v>
@@ -23434,7 +23446,7 @@
         <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H172">
         <v>0.8</v>
@@ -23556,7 +23568,7 @@
         <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -23922,7 +23934,7 @@
         <v>45</v>
       </c>
       <c r="B176" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H176">
         <v>0.8</v>
@@ -24166,7 +24178,7 @@
         <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H178">
         <v>0.8</v>
@@ -35024,7 +35036,7 @@
         <v>47</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -36244,7 +36256,7 @@
         <v>47</v>
       </c>
       <c r="B277" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H277">
         <v>0.95</v>
@@ -36366,7 +36378,7 @@
         <v>47</v>
       </c>
       <c r="B278" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -67137,7 +67149,7 @@
         <v>437</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H530">
         <v>0.95</v>
@@ -72142,7 +72154,7 @@
         <v>520</v>
       </c>
       <c r="B571" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H571">
         <v>1</v>
@@ -72889,7 +72901,7 @@
         <v>520</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>530</v>
+        <v>655</v>
       </c>
       <c r="G577">
         <v>1</v>
@@ -73014,7 +73026,7 @@
         <v>520</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="G578">
         <v>1</v>
@@ -73139,7 +73151,7 @@
         <v>520</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>532</v>
+        <v>657</v>
       </c>
       <c r="G579">
         <v>1</v>
@@ -73264,7 +73276,7 @@
         <v>520</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>533</v>
+        <v>658</v>
       </c>
       <c r="G580">
         <v>1</v>
@@ -73389,7 +73401,7 @@
         <v>520</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>534</v>
+        <v>659</v>
       </c>
       <c r="G581">
         <v>1</v>
@@ -74139,7 +74151,7 @@
         <v>520</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G587">
         <v>1</v>
@@ -74264,7 +74276,7 @@
         <v>520</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G588">
         <v>1</v>
@@ -74389,7 +74401,7 @@
         <v>520</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G589">
         <v>1</v>
@@ -74514,7 +74526,7 @@
         <v>520</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G590">
         <v>1</v>
@@ -74638,369 +74650,372 @@
       <c r="A591" t="s">
         <v>520</v>
       </c>
-      <c r="B591" t="s">
-        <v>645</v>
+      <c r="B591" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
       </c>
       <c r="H591">
-        <v>0.95</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="I591">
-        <v>1.05</v>
+        <v>1.143</v>
       </c>
       <c r="J591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="K591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="L591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="M591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="N591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="O591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="P591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="Q591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="R591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="S591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="T591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="U591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="V591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="W591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="X591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="Y591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="Z591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AA591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AB591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AC591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AD591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AE591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AF591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AG591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AH591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AI591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AJ591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AK591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AL591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AM591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AN591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AO591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AP591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AQ591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AR591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="AS591">
-        <v>0.95</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="592" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>520</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G592">
-        <v>1</v>
+      <c r="B592" t="s">
+        <v>593</v>
       </c>
       <c r="H592">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="I592">
-        <v>1.143</v>
+        <v>1</v>
       </c>
       <c r="J592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="K592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="L592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="M592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="N592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="O592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="P592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="Q592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="R592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="S592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="T592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="U592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="V592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="W592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="X592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="Y592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="Z592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AA592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AB592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AC592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AD592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AE592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AF592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AG592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AH592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AI592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AJ592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AK592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AL592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AM592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AN592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AO592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AP592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AQ592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AR592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
       <c r="AS592">
-        <v>0.23899999999999999</v>
+        <v>0.59255533199195165</v>
       </c>
     </row>
     <row r="593" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>520</v>
       </c>
-      <c r="B593" t="s">
-        <v>598</v>
+      <c r="B593" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0.51583710407239813</v>
       </c>
       <c r="I593">
-        <v>1</v>
+        <v>1.9004524886877827</v>
       </c>
       <c r="J593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="K593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="L593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="M593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="N593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="O593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="P593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="Q593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="R593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="S593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="T593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="U593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="V593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="W593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="X593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="Y593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="Z593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AA593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AB593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AC593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AD593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AE593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AF593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AG593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AH593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AI593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AJ593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AK593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AL593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AM593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AN593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AO593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AP593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AQ593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AR593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="AS593">
-        <v>0.59255533199195165</v>
+        <v>36.833333333333336</v>
       </c>
     </row>
     <row r="594" spans="1:45" x14ac:dyDescent="0.2">
@@ -75008,124 +75023,121 @@
         <v>520</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="G594">
-        <v>1</v>
+        <v>641</v>
       </c>
       <c r="H594">
-        <v>0.51583710407239813</v>
+        <v>0.16613924050632911</v>
       </c>
       <c r="I594">
-        <v>1.9004524886877827</v>
+        <v>2.1598101265822787</v>
       </c>
       <c r="J594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="K594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="L594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="M594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="N594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="O594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="P594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="Q594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="R594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="S594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="T594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="U594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="V594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="W594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="X594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="Y594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="Z594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AA594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AB594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AC594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AD594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AE594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AF594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AG594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AH594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AI594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AJ594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AK594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AL594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AM594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AN594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AO594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AP594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AQ594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AR594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
       <c r="AS594">
-        <v>36.833333333333336</v>
+        <v>60.19047619047619</v>
       </c>
     </row>
     <row r="595" spans="1:45" x14ac:dyDescent="0.2">
@@ -75133,121 +75145,121 @@
         <v>520</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H595">
-        <v>0.16613924050632911</v>
+        <v>0.2412868632707775</v>
       </c>
       <c r="I595">
-        <v>2.1598101265822787</v>
+        <v>2.0509383378016088</v>
       </c>
       <c r="J595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="K595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="L595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="M595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="N595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="O595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="P595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="Q595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="R595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="S595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="T595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="U595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="V595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="W595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="X595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="Y595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="Z595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AA595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AB595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AC595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AD595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AE595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AF595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AG595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AH595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AI595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AJ595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AK595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AL595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AM595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AN595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AO595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AP595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AQ595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AR595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
       <c r="AS595">
-        <v>60.19047619047619</v>
+        <v>41.444444444444443</v>
       </c>
     </row>
     <row r="596" spans="1:45" x14ac:dyDescent="0.2">
@@ -75255,121 +75267,121 @@
         <v>520</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H596">
-        <v>0.2412868632707775</v>
+        <v>0.28423772609819126</v>
       </c>
       <c r="I596">
-        <v>2.0509383378016088</v>
+        <v>1.8475452196382429</v>
       </c>
       <c r="J596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="K596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="L596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="M596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="N596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="O596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="P596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="Q596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="R596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="S596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="T596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="U596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="V596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="W596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="X596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="Y596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="Z596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AA596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AB596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AC596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AD596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AE596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AF596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AG596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AH596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AI596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AJ596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AK596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AL596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AM596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AN596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AO596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AP596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AQ596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AR596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
       <c r="AS596">
-        <v>41.444444444444443</v>
+        <v>70.36363636363636</v>
       </c>
     </row>
     <row r="597" spans="1:45" x14ac:dyDescent="0.2">
@@ -75377,121 +75389,121 @@
         <v>520</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H597">
-        <v>0.28423772609819126</v>
+        <v>0.52765957446808509</v>
       </c>
       <c r="I597">
-        <v>1.8475452196382429</v>
+        <v>2.2127659574468086</v>
       </c>
       <c r="J597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="K597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="L597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="M597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="N597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="O597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="P597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="Q597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="R597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="S597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="T597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="U597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="V597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="W597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="X597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="Y597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="Z597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AA597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AB597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AC597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AD597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AE597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AF597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AG597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AH597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AI597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AJ597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AK597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AL597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AM597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AN597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AO597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AP597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AQ597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AR597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
       <c r="AS597">
-        <v>70.36363636363636</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="598" spans="1:45" x14ac:dyDescent="0.2">
@@ -75499,7 +75511,7 @@
         <v>520</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H598">
         <v>0.52765957446808509</v>
@@ -75621,498 +75633,498 @@
         <v>520</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
       </c>
       <c r="H599">
-        <v>0.52765957446808509</v>
+        <v>0.45085803432137289</v>
       </c>
       <c r="I599">
-        <v>2.2127659574468086</v>
+        <v>1.7238689547581905</v>
       </c>
       <c r="J599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="K599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="L599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="M599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="N599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="O599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="P599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="Q599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="R599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="S599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="T599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="U599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="V599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="W599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="X599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="Y599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="Z599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AA599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AB599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AC599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AD599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AE599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AF599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AG599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AH599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AI599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AJ599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AK599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AL599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AM599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AN599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AO599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AP599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AQ599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AR599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
       <c r="AS599">
-        <v>58.75</v>
+        <v>75.411764705882348</v>
       </c>
     </row>
     <row r="600" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>520</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G600">
-        <v>1</v>
+      <c r="B600" t="s">
+        <v>594</v>
       </c>
       <c r="H600">
-        <v>0.45085803432137289</v>
+        <v>1</v>
       </c>
       <c r="I600">
-        <v>1.7238689547581905</v>
+        <v>1</v>
       </c>
       <c r="J600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="K600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="L600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="M600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="N600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="O600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="P600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="Q600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="R600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="S600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="T600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="U600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="V600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="W600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="X600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="Y600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="Z600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AA600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AB600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AC600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AD600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AE600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AF600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AG600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AH600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AI600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AJ600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AK600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AL600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AM600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AN600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AO600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AP600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AQ600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AR600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
       <c r="AS600">
-        <v>75.411764705882348</v>
+        <v>99.4</v>
       </c>
     </row>
     <row r="601" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>520</v>
       </c>
-      <c r="B601" t="s">
-        <v>599</v>
+      <c r="B601" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I601">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="K601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="L601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="M601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="N601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="O601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="P601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="Q601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="R601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="S601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="T601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="U601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="V601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="W601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="X601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="Y601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="Z601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AA601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AB601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AC601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AD601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AE601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AF601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AG601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AH601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AI601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AJ601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AK601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AL601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AM601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AN601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AO601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AP601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AQ601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AR601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
       <c r="AS601">
-        <v>99.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>520</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>644</v>
+      <c r="B602" t="s">
+        <v>646</v>
       </c>
       <c r="H602">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I602">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="K602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="L602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="M602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="N602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="O602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="P602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="Q602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="R602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="S602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="T602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="U602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="V602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="W602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="X602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="Y602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="Z602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AA602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AB602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AC602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AD602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AE602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AF602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AG602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AH602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AI602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AJ602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AK602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AL602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AM602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AN602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AO602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AP602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AQ602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AR602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="AS602">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="603" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>520</v>
+        <v>47</v>
       </c>
       <c r="B603" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H603">
         <v>1</v>
@@ -76121,112 +76133,112 @@
         <v>1</v>
       </c>
       <c r="J603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="K603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="L603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="M603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="N603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="O603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="P603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="Q603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="R603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="S603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="T603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="U603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="V603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="W603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="X603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="Y603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="Z603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AA603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AB603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AC603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AD603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AE603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AF603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AG603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AH603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AI603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AJ603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AK603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AL603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AM603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AN603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AO603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AP603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AQ603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AR603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
       <c r="AS603">
-        <v>0.2</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="604" spans="1:45" x14ac:dyDescent="0.2">
@@ -76234,7 +76246,7 @@
         <v>47</v>
       </c>
       <c r="B604" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H604">
         <v>1</v>
@@ -76243,112 +76255,112 @@
         <v>1</v>
       </c>
       <c r="J604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="K604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="L604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="M604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="N604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="Q604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="R604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="S604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="T604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="U604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="V604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="W604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="X604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="Y604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="Z604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AA604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AB604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AC604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AD604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AE604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AF604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AG604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AH604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AI604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AJ604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AK604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AL604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AM604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AN604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AO604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AQ604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AR604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AS604">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:45" x14ac:dyDescent="0.2">
@@ -76356,7 +76368,7 @@
         <v>47</v>
       </c>
       <c r="B605" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H605">
         <v>1</v>
@@ -76478,7 +76490,7 @@
         <v>47</v>
       </c>
       <c r="B606" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H606">
         <v>1</v>
@@ -76600,7 +76612,7 @@
         <v>47</v>
       </c>
       <c r="B607" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -76609,112 +76621,112 @@
         <v>1</v>
       </c>
       <c r="J607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="K607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="M607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="N607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="O607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="P607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Q607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="R607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="S607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="T607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="U607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="V607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="W607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Y607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Z607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AD607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AE607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AF607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AG607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AH607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AI607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AJ607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AK607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AL607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AM607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AN607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AO607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AP607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AS607">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="608" spans="1:45" x14ac:dyDescent="0.2">
@@ -76722,7 +76734,7 @@
         <v>47</v>
       </c>
       <c r="B608" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H608">
         <v>1</v>
@@ -76731,112 +76743,112 @@
         <v>1</v>
       </c>
       <c r="J608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="N608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="O608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="P608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Q608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="R608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="S608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="T608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="U608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="V608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="W608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AD608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AE608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AF608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AG608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AH608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AI608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AJ608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AK608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AL608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AM608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AN608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AS608">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:45" x14ac:dyDescent="0.2">
@@ -76844,7 +76856,7 @@
         <v>47</v>
       </c>
       <c r="B609" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H609">
         <v>1</v>
@@ -76966,7 +76978,7 @@
         <v>47</v>
       </c>
       <c r="B610" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H610">
         <v>1</v>
@@ -77085,131 +77097,619 @@
     </row>
     <row r="611" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>47</v>
+        <v>520</v>
       </c>
       <c r="B611" t="s">
         <v>660</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I611">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="J611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="M611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="N611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Q611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="R611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="S611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="W611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="X611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Y611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AE611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AF611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AG611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AH611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AI611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AJ611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AK611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AL611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AM611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AN611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AO611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AP611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR611">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AS611">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="612" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>520</v>
+      </c>
+      <c r="B612" t="s">
+        <v>661</v>
+      </c>
+      <c r="H612">
+        <v>0.95</v>
+      </c>
+      <c r="I612">
+        <v>1.05</v>
+      </c>
+      <c r="J612">
+        <v>1</v>
+      </c>
+      <c r="K612">
+        <v>1</v>
+      </c>
+      <c r="L612">
+        <v>1</v>
+      </c>
+      <c r="M612">
+        <v>1</v>
+      </c>
+      <c r="N612">
+        <v>1</v>
+      </c>
+      <c r="O612">
+        <v>1</v>
+      </c>
+      <c r="P612">
+        <v>1</v>
+      </c>
+      <c r="Q612">
+        <v>1</v>
+      </c>
+      <c r="R612">
+        <v>1</v>
+      </c>
+      <c r="S612">
+        <v>1</v>
+      </c>
+      <c r="T612">
+        <v>1</v>
+      </c>
+      <c r="U612">
+        <v>1</v>
+      </c>
+      <c r="V612">
+        <v>1</v>
+      </c>
+      <c r="W612">
+        <v>1</v>
+      </c>
+      <c r="X612">
+        <v>1</v>
+      </c>
+      <c r="Y612">
+        <v>1</v>
+      </c>
+      <c r="Z612">
+        <v>1</v>
+      </c>
+      <c r="AA612">
+        <v>1</v>
+      </c>
+      <c r="AB612">
+        <v>1</v>
+      </c>
+      <c r="AC612">
+        <v>1</v>
+      </c>
+      <c r="AD612">
+        <v>1</v>
+      </c>
+      <c r="AE612">
+        <v>1</v>
+      </c>
+      <c r="AF612">
+        <v>1</v>
+      </c>
+      <c r="AG612">
+        <v>1</v>
+      </c>
+      <c r="AH612">
+        <v>1</v>
+      </c>
+      <c r="AI612">
+        <v>1</v>
+      </c>
+      <c r="AJ612">
+        <v>1</v>
+      </c>
+      <c r="AK612">
+        <v>1</v>
+      </c>
+      <c r="AL612">
+        <v>1</v>
+      </c>
+      <c r="AM612">
+        <v>1</v>
+      </c>
+      <c r="AN612">
+        <v>1</v>
+      </c>
+      <c r="AO612">
+        <v>1</v>
+      </c>
+      <c r="AP612">
+        <v>1</v>
+      </c>
+      <c r="AQ612">
+        <v>1</v>
+      </c>
+      <c r="AR612">
+        <v>1</v>
+      </c>
+      <c r="AS612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>520</v>
+      </c>
+      <c r="B613" t="s">
+        <v>662</v>
+      </c>
+      <c r="H613">
+        <v>0.95</v>
+      </c>
+      <c r="I613">
+        <v>1.05</v>
+      </c>
+      <c r="J613">
+        <v>1</v>
+      </c>
+      <c r="K613">
+        <v>1</v>
+      </c>
+      <c r="L613">
+        <v>1</v>
+      </c>
+      <c r="M613">
+        <v>1</v>
+      </c>
+      <c r="N613">
+        <v>1</v>
+      </c>
+      <c r="O613">
+        <v>1</v>
+      </c>
+      <c r="P613">
+        <v>1</v>
+      </c>
+      <c r="Q613">
+        <v>1</v>
+      </c>
+      <c r="R613">
+        <v>1</v>
+      </c>
+      <c r="S613">
+        <v>1</v>
+      </c>
+      <c r="T613">
+        <v>1</v>
+      </c>
+      <c r="U613">
+        <v>1</v>
+      </c>
+      <c r="V613">
+        <v>1</v>
+      </c>
+      <c r="W613">
+        <v>1</v>
+      </c>
+      <c r="X613">
+        <v>1</v>
+      </c>
+      <c r="Y613">
+        <v>1</v>
+      </c>
+      <c r="Z613">
+        <v>1</v>
+      </c>
+      <c r="AA613">
+        <v>1</v>
+      </c>
+      <c r="AB613">
+        <v>1</v>
+      </c>
+      <c r="AC613">
+        <v>1</v>
+      </c>
+      <c r="AD613">
+        <v>1</v>
+      </c>
+      <c r="AE613">
+        <v>1</v>
+      </c>
+      <c r="AF613">
+        <v>1</v>
+      </c>
+      <c r="AG613">
+        <v>1</v>
+      </c>
+      <c r="AH613">
+        <v>1</v>
+      </c>
+      <c r="AI613">
+        <v>1</v>
+      </c>
+      <c r="AJ613">
+        <v>1</v>
+      </c>
+      <c r="AK613">
+        <v>1</v>
+      </c>
+      <c r="AL613">
+        <v>1</v>
+      </c>
+      <c r="AM613">
+        <v>1</v>
+      </c>
+      <c r="AN613">
+        <v>1</v>
+      </c>
+      <c r="AO613">
+        <v>1</v>
+      </c>
+      <c r="AP613">
+        <v>1</v>
+      </c>
+      <c r="AQ613">
+        <v>1</v>
+      </c>
+      <c r="AR613">
+        <v>1</v>
+      </c>
+      <c r="AS613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>520</v>
+      </c>
+      <c r="B614" t="s">
+        <v>663</v>
+      </c>
+      <c r="H614">
+        <v>0.95</v>
+      </c>
+      <c r="I614">
+        <v>1.05</v>
+      </c>
+      <c r="J614">
+        <v>1</v>
+      </c>
+      <c r="K614">
+        <v>1</v>
+      </c>
+      <c r="L614">
+        <v>1</v>
+      </c>
+      <c r="M614">
+        <v>1</v>
+      </c>
+      <c r="N614">
+        <v>1</v>
+      </c>
+      <c r="O614">
+        <v>1</v>
+      </c>
+      <c r="P614">
+        <v>1</v>
+      </c>
+      <c r="Q614">
+        <v>1</v>
+      </c>
+      <c r="R614">
+        <v>1</v>
+      </c>
+      <c r="S614">
+        <v>1</v>
+      </c>
+      <c r="T614">
+        <v>1</v>
+      </c>
+      <c r="U614">
+        <v>1</v>
+      </c>
+      <c r="V614">
+        <v>1</v>
+      </c>
+      <c r="W614">
+        <v>1</v>
+      </c>
+      <c r="X614">
+        <v>1</v>
+      </c>
+      <c r="Y614">
+        <v>1</v>
+      </c>
+      <c r="Z614">
+        <v>1</v>
+      </c>
+      <c r="AA614">
+        <v>1</v>
+      </c>
+      <c r="AB614">
+        <v>1</v>
+      </c>
+      <c r="AC614">
+        <v>1</v>
+      </c>
+      <c r="AD614">
+        <v>1</v>
+      </c>
+      <c r="AE614">
+        <v>1</v>
+      </c>
+      <c r="AF614">
+        <v>1</v>
+      </c>
+      <c r="AG614">
+        <v>1</v>
+      </c>
+      <c r="AH614">
+        <v>1</v>
+      </c>
+      <c r="AI614">
+        <v>1</v>
+      </c>
+      <c r="AJ614">
+        <v>1</v>
+      </c>
+      <c r="AK614">
+        <v>1</v>
+      </c>
+      <c r="AL614">
+        <v>1</v>
+      </c>
+      <c r="AM614">
+        <v>1</v>
+      </c>
+      <c r="AN614">
+        <v>1</v>
+      </c>
+      <c r="AO614">
+        <v>1</v>
+      </c>
+      <c r="AP614">
+        <v>1</v>
+      </c>
+      <c r="AQ614">
+        <v>1</v>
+      </c>
+      <c r="AR614">
+        <v>1</v>
+      </c>
+      <c r="AS614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>520</v>
+      </c>
+      <c r="B615" t="s">
+        <v>664</v>
+      </c>
+      <c r="H615">
+        <v>0.95</v>
+      </c>
+      <c r="I615">
+        <v>1.05</v>
+      </c>
+      <c r="J615">
+        <v>0.99</v>
+      </c>
+      <c r="K615">
+        <v>0.99</v>
+      </c>
+      <c r="L615">
+        <v>0.99</v>
+      </c>
+      <c r="M615">
+        <v>0.99</v>
+      </c>
+      <c r="N615">
+        <v>0.99</v>
+      </c>
+      <c r="O615">
+        <v>0.99</v>
+      </c>
+      <c r="P615">
+        <v>0.99</v>
+      </c>
+      <c r="Q615">
+        <v>0.99</v>
+      </c>
+      <c r="R615">
+        <v>0.99</v>
+      </c>
+      <c r="S615">
+        <v>0.99</v>
+      </c>
+      <c r="T615">
+        <v>0.99</v>
+      </c>
+      <c r="U615">
+        <v>0.99</v>
+      </c>
+      <c r="V615">
+        <v>0.99</v>
+      </c>
+      <c r="W615">
+        <v>0.99</v>
+      </c>
+      <c r="X615">
+        <v>0.99</v>
+      </c>
+      <c r="Y615">
+        <v>0.99</v>
+      </c>
+      <c r="Z615">
+        <v>0.99</v>
+      </c>
+      <c r="AA615">
+        <v>0.99</v>
+      </c>
+      <c r="AB615">
+        <v>0.99</v>
+      </c>
+      <c r="AC615">
+        <v>0.99</v>
+      </c>
+      <c r="AD615">
+        <v>0.99</v>
+      </c>
+      <c r="AE615">
+        <v>0.99</v>
+      </c>
+      <c r="AF615">
+        <v>0.99</v>
+      </c>
+      <c r="AG615">
+        <v>0.99</v>
+      </c>
+      <c r="AH615">
+        <v>0.99</v>
+      </c>
+      <c r="AI615">
+        <v>0.99</v>
+      </c>
+      <c r="AJ615">
+        <v>0.99</v>
+      </c>
+      <c r="AK615">
+        <v>0.99</v>
+      </c>
+      <c r="AL615">
+        <v>0.99</v>
+      </c>
+      <c r="AM615">
+        <v>0.99</v>
+      </c>
+      <c r="AN615">
+        <v>0.99</v>
+      </c>
+      <c r="AO615">
+        <v>0.99</v>
+      </c>
+      <c r="AP615">
+        <v>0.99</v>
+      </c>
+      <c r="AQ615">
+        <v>0.99</v>
+      </c>
+      <c r="AR615">
+        <v>0.99</v>
+      </c>
+      <c r="AS615">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AS540" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS602">
-    <sortCondition ref="A2:A602"/>
-    <sortCondition ref="B2:B602"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS601">
+    <sortCondition ref="A2:A601"/>
+    <sortCondition ref="B2:B601"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E5BBF-10E6-D042-B2DD-BA5A0B9BAC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E2E1C-5917-3640-A321-9C79DBBE8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="119" workbookViewId="0">
+      <selection activeCell="E611" sqref="E611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -77372,118 +77372,118 @@
         <v>653</v>
       </c>
       <c r="H613">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I613">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="T613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AB613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AC613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AD613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AE613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AJ613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AL613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AN613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AQ613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AS613">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="614" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E2E1C-5917-3640-A321-9C79DBBE8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD0AC1-4F8B-184A-9379-02E1ADE38986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="672">
   <si>
     <t>subsector</t>
   </si>
@@ -2050,6 +2050,9 @@
   <si>
     <t>ef_frst_forestfires_secondary_co2</t>
   </si>
+  <si>
+    <t>frac_agrc_agriculture_production_lost</t>
+  </si>
 </sst>
 </file>
 
@@ -2471,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS621"/>
+  <dimension ref="A1:AS622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E611" sqref="E611"/>
+    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J615" sqref="J615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -77256,112 +77259,112 @@
         <v>1</v>
       </c>
       <c r="J612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="K612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="L612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="M612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="N612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="O612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="P612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="Q612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="R612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="S612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="T612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="U612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="V612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="W612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="X612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="Y612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="Z612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AA612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AB612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AC612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AD612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AE612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AF612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AG612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AH612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AI612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AJ612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AK612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AL612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AM612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AN612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AO612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AP612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AQ612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AR612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
       <c r="AS612">
-        <v>20</v>
+        <v>528.4</v>
       </c>
     </row>
     <row r="613" spans="1:45" x14ac:dyDescent="0.2">
@@ -78460,6 +78463,128 @@
       </c>
       <c r="AS621">
         <v>46.7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>45</v>
+      </c>
+      <c r="B622" t="s">
+        <v>671</v>
+      </c>
+      <c r="H622">
+        <v>0.86</v>
+      </c>
+      <c r="I622">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="K622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="L622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="M622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="N622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="O622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="P622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="Q622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="R622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="S622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="T622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="U622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="V622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="W622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="X622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="Y622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="Z622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AA622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AB622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AC622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AD622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AE622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AF622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AG622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AH622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AI622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AJ622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AK622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AL622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AM622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AN622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AO622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AP622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AQ622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AR622">
+        <v>0.21024000000000001</v>
+      </c>
+      <c r="AS622">
+        <v>0.21024000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA79AA1-DC24-7148-9F7E-4BF0A31DA9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30B849-AAAC-D647-A430-27292AC9E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="AE230" zoomScale="119" workbookViewId="0">
+      <selection activeCell="AQ255" sqref="AQ255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33691,112 +33691,112 @@
         <v>1</v>
       </c>
       <c r="J256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="K256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="M256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="N256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="O256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="P256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Q256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="R256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="S256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="T256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="U256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="V256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="W256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Z256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AD256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AE256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AF256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AG256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AH256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AI256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AJ256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AK256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AL256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AM256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AN256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AO256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AP256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AS256">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30B849-AAAC-D647-A430-27292AC9E379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEDB9CA-0E1B-8C40-9392-9C09C57420B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE230" zoomScale="119" workbookViewId="0">
-      <selection activeCell="AQ255" sqref="AQ255"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3330,112 +3330,112 @@
         <v>1.2</v>
       </c>
       <c r="J8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="L8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="M8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="O8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="P8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="Q8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="R8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="S8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="T8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="U8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="V8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="W8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="X8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="Y8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="Z8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AA8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AB8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AC8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AD8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AE8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AF8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AG8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AH8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AI8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AJ8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AK8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AL8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AM8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AN8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AO8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AP8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AQ8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AR8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AS8">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -3452,112 +3452,112 @@
         <v>1.2</v>
       </c>
       <c r="J9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="O9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="P9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Q9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="T9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="U9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="V9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="W9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Y9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Z9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AA9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AB9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AC9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AD9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AE9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AF9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AG9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AH9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AI9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AJ9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AK9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AL9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AM9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AN9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AO9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AP9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AR9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AS9">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -3574,112 +3574,112 @@
         <v>1.2</v>
       </c>
       <c r="J10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="L10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="M10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="O10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="P10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Q10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="R10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="S10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="T10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="U10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="W10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Y10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="Z10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AA10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AB10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AC10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AD10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AE10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AF10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AG10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AH10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AI10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AJ10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AK10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AL10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AM10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AN10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AO10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AP10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AQ10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AR10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AS10">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -3696,112 +3696,112 @@
         <v>1.2</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AL11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AM11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AN11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -3818,112 +3818,112 @@
         <v>1.2</v>
       </c>
       <c r="J12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="M12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="O12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="P12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="Q12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="R12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="S12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="T12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="U12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="V12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="W12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="X12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="Y12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AA12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AB12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AC12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AD12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AE12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AG12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AH12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AI12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AJ12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AK12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AL12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AM12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AN12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AO12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AP12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AQ12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="AS12">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -3940,112 +3940,112 @@
         <v>1.2</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AL13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AM13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AN13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -4062,112 +4062,112 @@
         <v>1.2</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="V14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Z14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AA14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AB14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AC14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AE14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AF14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AG14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AH14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AI14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AJ14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AK14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AL14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AM14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AN14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AP14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AQ14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AS14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -4184,112 +4184,112 @@
         <v>1.2</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Z15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AA15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AF15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AG15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AH15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AI15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AJ15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AL15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AM15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AN15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AO15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AP15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AR15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AS15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -4306,112 +4306,112 @@
         <v>1.2</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Y16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AB16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AC16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AE16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AF16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AG16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AH16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AI16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AJ16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AK16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AM16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AS16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -4428,112 +4428,112 @@
         <v>1.2</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AB17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AC17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AE17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AF17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AG17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AI17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AK17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AL17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AM17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -4550,112 +4550,112 @@
         <v>1.2</v>
       </c>
       <c r="J18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="K18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="M18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="N18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="O18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="Q18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="R18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="S18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="T18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="U18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="V18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="W18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="X18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="Y18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="Z18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AA18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AB18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AC18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AD18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AE18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AF18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AG18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AH18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AI18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AJ18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AK18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AL18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AM18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AN18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AO18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AP18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AQ18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AR18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="AS18">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
@@ -4672,112 +4672,112 @@
         <v>1.2</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AL19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AM19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
@@ -4794,112 +4794,112 @@
         <v>1.2</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AL20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AM20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
@@ -11763,112 +11763,112 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AI77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AK77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AL77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS77">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEDB9CA-0E1B-8C40-9392-9C09C57420B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433FC96-4E6E-8C4E-9D3E-B7759C188767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2437,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="119" workbookViewId="0">
+      <selection activeCell="F525" sqref="F525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -66415,112 +66415,112 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="K524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="L524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="M524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="N524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="P524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Q524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="R524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="S524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="T524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="U524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="V524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="W524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="X524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Y524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Z524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AA524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AB524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AC524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AE524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AF524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AG524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AH524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AI524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AJ524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AK524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AL524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AM524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AN524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AO524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AQ524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AR524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AS524">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="525" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433FC96-4E6E-8C4E-9D3E-B7759C188767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F8835-445C-F34D-878B-4682110E5F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="8020" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:AS609"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A499" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F525" sqref="F525"/>
+      <selection activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F8835-445C-F34D-878B-4682110E5F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4679AF8-868F-DD44-A684-B202781C956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="8020" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4679AF8-868F-DD44-A684-B202781C956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426C2DA-9579-804C-A871-B37801F0EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="8020" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="480" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="664">
   <si>
     <t>subsector</t>
   </si>
@@ -2014,6 +2014,21 @@
   <si>
     <t>frac_agrc_production_lost_sent_to_landfill</t>
   </si>
+  <si>
+    <t>frac_lndu_increasing_net_exports_met_croplands</t>
+  </si>
+  <si>
+    <t>frac_lndu_increasing_net_exports_met_grasslands</t>
+  </si>
+  <si>
+    <t>frac_lndu_proportion_grasslands_pasture</t>
+  </si>
+  <si>
+    <t>frac_lndu_increasing_net_imports_met_croplands</t>
+  </si>
+  <si>
+    <t>frac_lndu_increasing_net_imports_met_grasslands</t>
+  </si>
 </sst>
 </file>
 
@@ -2435,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS609"/>
+  <dimension ref="A1:AS614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="119" workbookViewId="0">
-      <selection activeCell="E523" sqref="E523"/>
+    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="119" workbookViewId="0">
+      <selection activeCell="F612" sqref="F612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -76960,6 +76975,616 @@
       </c>
       <c r="AS609">
         <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>47</v>
+      </c>
+      <c r="B610" t="s">
+        <v>659</v>
+      </c>
+      <c r="H610">
+        <v>1</v>
+      </c>
+      <c r="I610">
+        <v>1</v>
+      </c>
+      <c r="J610">
+        <v>1</v>
+      </c>
+      <c r="K610">
+        <v>1</v>
+      </c>
+      <c r="L610">
+        <v>1</v>
+      </c>
+      <c r="M610">
+        <v>1</v>
+      </c>
+      <c r="N610">
+        <v>1</v>
+      </c>
+      <c r="O610">
+        <v>1</v>
+      </c>
+      <c r="P610">
+        <v>1</v>
+      </c>
+      <c r="Q610">
+        <v>1</v>
+      </c>
+      <c r="R610">
+        <v>1</v>
+      </c>
+      <c r="S610">
+        <v>1</v>
+      </c>
+      <c r="T610">
+        <v>1</v>
+      </c>
+      <c r="U610">
+        <v>1</v>
+      </c>
+      <c r="V610">
+        <v>1</v>
+      </c>
+      <c r="W610">
+        <v>1</v>
+      </c>
+      <c r="X610">
+        <v>1</v>
+      </c>
+      <c r="Y610">
+        <v>1</v>
+      </c>
+      <c r="Z610">
+        <v>1</v>
+      </c>
+      <c r="AA610">
+        <v>1</v>
+      </c>
+      <c r="AB610">
+        <v>1</v>
+      </c>
+      <c r="AC610">
+        <v>1</v>
+      </c>
+      <c r="AD610">
+        <v>1</v>
+      </c>
+      <c r="AE610">
+        <v>1</v>
+      </c>
+      <c r="AF610">
+        <v>1</v>
+      </c>
+      <c r="AG610">
+        <v>1</v>
+      </c>
+      <c r="AH610">
+        <v>1</v>
+      </c>
+      <c r="AI610">
+        <v>1</v>
+      </c>
+      <c r="AJ610">
+        <v>1</v>
+      </c>
+      <c r="AK610">
+        <v>1</v>
+      </c>
+      <c r="AL610">
+        <v>1</v>
+      </c>
+      <c r="AM610">
+        <v>1</v>
+      </c>
+      <c r="AN610">
+        <v>1</v>
+      </c>
+      <c r="AO610">
+        <v>1</v>
+      </c>
+      <c r="AP610">
+        <v>1</v>
+      </c>
+      <c r="AQ610">
+        <v>1</v>
+      </c>
+      <c r="AR610">
+        <v>1</v>
+      </c>
+      <c r="AS610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>47</v>
+      </c>
+      <c r="B611" t="s">
+        <v>660</v>
+      </c>
+      <c r="H611">
+        <v>1</v>
+      </c>
+      <c r="I611">
+        <v>1</v>
+      </c>
+      <c r="J611">
+        <v>1</v>
+      </c>
+      <c r="K611">
+        <v>1</v>
+      </c>
+      <c r="L611">
+        <v>1</v>
+      </c>
+      <c r="M611">
+        <v>1</v>
+      </c>
+      <c r="N611">
+        <v>1</v>
+      </c>
+      <c r="O611">
+        <v>1</v>
+      </c>
+      <c r="P611">
+        <v>1</v>
+      </c>
+      <c r="Q611">
+        <v>1</v>
+      </c>
+      <c r="R611">
+        <v>1</v>
+      </c>
+      <c r="S611">
+        <v>1</v>
+      </c>
+      <c r="T611">
+        <v>1</v>
+      </c>
+      <c r="U611">
+        <v>1</v>
+      </c>
+      <c r="V611">
+        <v>1</v>
+      </c>
+      <c r="W611">
+        <v>1</v>
+      </c>
+      <c r="X611">
+        <v>1</v>
+      </c>
+      <c r="Y611">
+        <v>1</v>
+      </c>
+      <c r="Z611">
+        <v>1</v>
+      </c>
+      <c r="AA611">
+        <v>1</v>
+      </c>
+      <c r="AB611">
+        <v>1</v>
+      </c>
+      <c r="AC611">
+        <v>1</v>
+      </c>
+      <c r="AD611">
+        <v>1</v>
+      </c>
+      <c r="AE611">
+        <v>1</v>
+      </c>
+      <c r="AF611">
+        <v>1</v>
+      </c>
+      <c r="AG611">
+        <v>1</v>
+      </c>
+      <c r="AH611">
+        <v>1</v>
+      </c>
+      <c r="AI611">
+        <v>1</v>
+      </c>
+      <c r="AJ611">
+        <v>1</v>
+      </c>
+      <c r="AK611">
+        <v>1</v>
+      </c>
+      <c r="AL611">
+        <v>1</v>
+      </c>
+      <c r="AM611">
+        <v>1</v>
+      </c>
+      <c r="AN611">
+        <v>1</v>
+      </c>
+      <c r="AO611">
+        <v>1</v>
+      </c>
+      <c r="AP611">
+        <v>1</v>
+      </c>
+      <c r="AQ611">
+        <v>1</v>
+      </c>
+      <c r="AR611">
+        <v>1</v>
+      </c>
+      <c r="AS611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>47</v>
+      </c>
+      <c r="B612" t="s">
+        <v>661</v>
+      </c>
+      <c r="H612">
+        <v>1</v>
+      </c>
+      <c r="I612">
+        <v>1</v>
+      </c>
+      <c r="J612">
+        <v>0.4</v>
+      </c>
+      <c r="K612">
+        <v>0.4</v>
+      </c>
+      <c r="L612">
+        <v>0.4</v>
+      </c>
+      <c r="M612">
+        <v>0.4</v>
+      </c>
+      <c r="N612">
+        <v>0.4</v>
+      </c>
+      <c r="O612">
+        <v>0.4</v>
+      </c>
+      <c r="P612">
+        <v>0.4</v>
+      </c>
+      <c r="Q612">
+        <v>0.4</v>
+      </c>
+      <c r="R612">
+        <v>0.4</v>
+      </c>
+      <c r="S612">
+        <v>0.4</v>
+      </c>
+      <c r="T612">
+        <v>0.4</v>
+      </c>
+      <c r="U612">
+        <v>0.4</v>
+      </c>
+      <c r="V612">
+        <v>0.4</v>
+      </c>
+      <c r="W612">
+        <v>0.4</v>
+      </c>
+      <c r="X612">
+        <v>0.4</v>
+      </c>
+      <c r="Y612">
+        <v>0.4</v>
+      </c>
+      <c r="Z612">
+        <v>0.4</v>
+      </c>
+      <c r="AA612">
+        <v>0.4</v>
+      </c>
+      <c r="AB612">
+        <v>0.4</v>
+      </c>
+      <c r="AC612">
+        <v>0.4</v>
+      </c>
+      <c r="AD612">
+        <v>0.4</v>
+      </c>
+      <c r="AE612">
+        <v>0.4</v>
+      </c>
+      <c r="AF612">
+        <v>0.4</v>
+      </c>
+      <c r="AG612">
+        <v>0.4</v>
+      </c>
+      <c r="AH612">
+        <v>0.4</v>
+      </c>
+      <c r="AI612">
+        <v>0.4</v>
+      </c>
+      <c r="AJ612">
+        <v>0.4</v>
+      </c>
+      <c r="AK612">
+        <v>0.4</v>
+      </c>
+      <c r="AL612">
+        <v>0.4</v>
+      </c>
+      <c r="AM612">
+        <v>0.4</v>
+      </c>
+      <c r="AN612">
+        <v>0.4</v>
+      </c>
+      <c r="AO612">
+        <v>0.4</v>
+      </c>
+      <c r="AP612">
+        <v>0.4</v>
+      </c>
+      <c r="AQ612">
+        <v>0.4</v>
+      </c>
+      <c r="AR612">
+        <v>0.4</v>
+      </c>
+      <c r="AS612">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>47</v>
+      </c>
+      <c r="B613" t="s">
+        <v>662</v>
+      </c>
+      <c r="H613">
+        <v>1</v>
+      </c>
+      <c r="I613">
+        <v>1</v>
+      </c>
+      <c r="J613">
+        <v>1</v>
+      </c>
+      <c r="K613">
+        <v>1</v>
+      </c>
+      <c r="L613">
+        <v>1</v>
+      </c>
+      <c r="M613">
+        <v>1</v>
+      </c>
+      <c r="N613">
+        <v>1</v>
+      </c>
+      <c r="O613">
+        <v>1</v>
+      </c>
+      <c r="P613">
+        <v>1</v>
+      </c>
+      <c r="Q613">
+        <v>1</v>
+      </c>
+      <c r="R613">
+        <v>1</v>
+      </c>
+      <c r="S613">
+        <v>1</v>
+      </c>
+      <c r="T613">
+        <v>1</v>
+      </c>
+      <c r="U613">
+        <v>1</v>
+      </c>
+      <c r="V613">
+        <v>1</v>
+      </c>
+      <c r="W613">
+        <v>1</v>
+      </c>
+      <c r="X613">
+        <v>1</v>
+      </c>
+      <c r="Y613">
+        <v>1</v>
+      </c>
+      <c r="Z613">
+        <v>1</v>
+      </c>
+      <c r="AA613">
+        <v>1</v>
+      </c>
+      <c r="AB613">
+        <v>1</v>
+      </c>
+      <c r="AC613">
+        <v>1</v>
+      </c>
+      <c r="AD613">
+        <v>1</v>
+      </c>
+      <c r="AE613">
+        <v>1</v>
+      </c>
+      <c r="AF613">
+        <v>1</v>
+      </c>
+      <c r="AG613">
+        <v>1</v>
+      </c>
+      <c r="AH613">
+        <v>1</v>
+      </c>
+      <c r="AI613">
+        <v>1</v>
+      </c>
+      <c r="AJ613">
+        <v>1</v>
+      </c>
+      <c r="AK613">
+        <v>1</v>
+      </c>
+      <c r="AL613">
+        <v>1</v>
+      </c>
+      <c r="AM613">
+        <v>1</v>
+      </c>
+      <c r="AN613">
+        <v>1</v>
+      </c>
+      <c r="AO613">
+        <v>1</v>
+      </c>
+      <c r="AP613">
+        <v>1</v>
+      </c>
+      <c r="AQ613">
+        <v>1</v>
+      </c>
+      <c r="AR613">
+        <v>1</v>
+      </c>
+      <c r="AS613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>47</v>
+      </c>
+      <c r="B614" t="s">
+        <v>663</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <v>1</v>
+      </c>
+      <c r="J614">
+        <v>1</v>
+      </c>
+      <c r="K614">
+        <v>1</v>
+      </c>
+      <c r="L614">
+        <v>1</v>
+      </c>
+      <c r="M614">
+        <v>1</v>
+      </c>
+      <c r="N614">
+        <v>1</v>
+      </c>
+      <c r="O614">
+        <v>1</v>
+      </c>
+      <c r="P614">
+        <v>1</v>
+      </c>
+      <c r="Q614">
+        <v>1</v>
+      </c>
+      <c r="R614">
+        <v>1</v>
+      </c>
+      <c r="S614">
+        <v>1</v>
+      </c>
+      <c r="T614">
+        <v>1</v>
+      </c>
+      <c r="U614">
+        <v>1</v>
+      </c>
+      <c r="V614">
+        <v>1</v>
+      </c>
+      <c r="W614">
+        <v>1</v>
+      </c>
+      <c r="X614">
+        <v>1</v>
+      </c>
+      <c r="Y614">
+        <v>1</v>
+      </c>
+      <c r="Z614">
+        <v>1</v>
+      </c>
+      <c r="AA614">
+        <v>1</v>
+      </c>
+      <c r="AB614">
+        <v>1</v>
+      </c>
+      <c r="AC614">
+        <v>1</v>
+      </c>
+      <c r="AD614">
+        <v>1</v>
+      </c>
+      <c r="AE614">
+        <v>1</v>
+      </c>
+      <c r="AF614">
+        <v>1</v>
+      </c>
+      <c r="AG614">
+        <v>1</v>
+      </c>
+      <c r="AH614">
+        <v>1</v>
+      </c>
+      <c r="AI614">
+        <v>1</v>
+      </c>
+      <c r="AJ614">
+        <v>1</v>
+      </c>
+      <c r="AK614">
+        <v>1</v>
+      </c>
+      <c r="AL614">
+        <v>1</v>
+      </c>
+      <c r="AM614">
+        <v>1</v>
+      </c>
+      <c r="AN614">
+        <v>1</v>
+      </c>
+      <c r="AO614">
+        <v>1</v>
+      </c>
+      <c r="AP614">
+        <v>1</v>
+      </c>
+      <c r="AQ614">
+        <v>1</v>
+      </c>
+      <c r="AR614">
+        <v>1</v>
+      </c>
+      <c r="AS614">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426C2DA-9579-804C-A871-B37801F0EB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E0104-273D-D749-841A-1F030B5D7FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="480" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:AS614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A603" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F612" sqref="F612"/>
+      <selection activeCell="B609" sqref="B609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_af_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE57217-A6DE-FC41-AE49-FFADD6637828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AACEC92-5CF4-294C-9D90-61FC492BD024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="460" windowWidth="22140" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="460" windowWidth="22140" windowHeight="20600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="715">
   <si>
     <t>subsector</t>
   </si>
@@ -2612,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B578" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B601" sqref="B601"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2662,8 +2662,8 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+      <c r="N1" s="1">
+        <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -83978,10 +83978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -84123,6 +84123,128 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>0.6</v>
+      </c>
+      <c r="I2">
+        <v>1.74</v>
+      </c>
+      <c r="J2">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="K2">
+        <v>157.47999999999999</v>
+      </c>
+      <c r="L2">
+        <v>155.47999999999999</v>
+      </c>
+      <c r="M2">
+        <v>153.47999999999999</v>
+      </c>
+      <c r="N2">
+        <v>151.47999999999999</v>
+      </c>
+      <c r="O2">
+        <v>149.47999999999999</v>
+      </c>
+      <c r="P2">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>145.47999999999999</v>
+      </c>
+      <c r="R2">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="S2">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="T2">
+        <v>139.47999999999999</v>
+      </c>
+      <c r="U2">
+        <v>137.47999999999999</v>
+      </c>
+      <c r="V2">
+        <v>135.47999999999999</v>
+      </c>
+      <c r="W2">
+        <v>133.47999999999999</v>
+      </c>
+      <c r="X2">
+        <v>131.47999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>129.47999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>127.48</v>
+      </c>
+      <c r="AA2">
+        <v>125.48</v>
+      </c>
+      <c r="AB2">
+        <v>123.48</v>
+      </c>
+      <c r="AC2">
+        <v>121.48</v>
+      </c>
+      <c r="AD2">
+        <v>119.48</v>
+      </c>
+      <c r="AE2">
+        <v>117.48</v>
+      </c>
+      <c r="AF2">
+        <v>115.48</v>
+      </c>
+      <c r="AG2">
+        <v>113.48</v>
+      </c>
+      <c r="AH2">
+        <v>111.48</v>
+      </c>
+      <c r="AI2">
+        <v>109.48</v>
+      </c>
+      <c r="AJ2">
+        <v>107.48</v>
+      </c>
+      <c r="AK2">
+        <v>105.48</v>
+      </c>
+      <c r="AL2">
+        <v>103.48</v>
+      </c>
+      <c r="AM2">
+        <v>101.48</v>
+      </c>
+      <c r="AN2">
+        <v>99.48</v>
+      </c>
+      <c r="AO2">
+        <v>97.48</v>
+      </c>
+      <c r="AP2">
+        <v>95.48</v>
+      </c>
+      <c r="AQ2">
+        <v>93.48</v>
+      </c>
+      <c r="AR2">
+        <v>91.48</v>
+      </c>
+      <c r="AS2">
+        <v>89.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
